--- a/Configs/Recipes.xlsx
+++ b/Configs/Recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40010D6C-4185-4AE8-9EF5-599C398D942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF2CF1D-314A-42F6-9A34-5C0629CD384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,12 +55,134 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{42D82021-DE29-485A-8232-C54D16B4EBF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+主要用在事件中，生产建筑可以不用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B0F9314E-2BBF-49DA-B92B-7288B712AC3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可填写多个，显示时只显示第一个的信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2C40E666-E089-4914-A773-5A8EAC08B913}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应左侧ID，每个ID对应一个数量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D2BFBC30-87BF-4547-AC21-89AEA8C14898}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应左侧数量，每个数量对应一个调整值，产出时随机减去或加上调整值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E0052355-8884-44D0-A93A-74E835A88186}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当产品ID有多个时，随机选择其中「X」（配置数）个产品产出</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,13 +289,57 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机调整值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramdomAdjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出种类数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productTypeNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +365,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -505,71 +686,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -580,84 +782,129 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Configs/Recipes.xlsx
+++ b/Configs/Recipes.xlsx
@@ -1,42 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF2CF1D-314A-42F6-9A34-5C0629CD384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jimmy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A917E4BC-1422-43DB-B10F-CA8C03BAE129}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -45,7 +46,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -55,39 +55,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{42D82021-DE29-485A-8232-C54D16B4EBF2}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jimmy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-主要用在事件中，生产建筑可以不用</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B0F9314E-2BBF-49DA-B92B-7288B712AC3E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -96,7 +69,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+主要用在事件中，生产建筑可以不用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -105,13 +99,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2C40E666-E089-4914-A773-5A8EAC08B913}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -120,7 +113,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -129,13 +121,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D2BFBC30-87BF-4547-AC21-89AEA8C14898}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -144,7 +135,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -153,13 +143,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E0052355-8884-44D0-A93A-74E835A88186}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -168,7 +157,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -182,216 +170,492 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方名</t>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>产品数量</t>
+  </si>
+  <si>
+    <t>随机调整值</t>
+  </si>
+  <si>
+    <t>产出种类数</t>
+  </si>
+  <si>
+    <t>材料ID列表</t>
+  </si>
+  <si>
+    <t>材料数量列表</t>
+  </si>
+  <si>
+    <t>生产时长</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>productAmount</t>
+  </si>
+  <si>
+    <t>ramdomAdjust</t>
+  </si>
+  <si>
+    <t>productTypeNum</t>
+  </si>
+  <si>
+    <t>materialIDGroup</t>
+  </si>
+  <si>
+    <t>materialAmountGroup</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000301</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>10001,10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialIDGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialAmountGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2000302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2000401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12001</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>2000402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料数量列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料ID列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机调整值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramdomAdjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出种类数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productTypeNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -399,25 +663,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,7 +1016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -501,7 +1051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -675,243 +1225,238 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.9296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.9296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.06481481481481" style="1"/>
+    <col min="2" max="2" width="12.8611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.9259259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6018518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9259259259259" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7962962962963" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.2037037037037" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Recipes.xlsx
+++ b/Configs/Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAEDAF1-3517-4F65-A6F9-925242B058B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8CCFA2-66ED-4FFD-BF8F-ADA4694D144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6098" yWindow="6922" windowWidth="28814" windowHeight="9856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="1298" windowWidth="20108" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -1219,6 +1219,17 @@
       <t>0002</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力值消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyCost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1568,13 +1579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1590,7 +1601,7 @@
     <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,8 +1629,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,8 +1661,11 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1676,8 +1693,11 @@
       <c r="I3" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1725,11 @@
       <c r="I4" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1734,8 +1757,11 @@
       <c r="I5" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1763,8 +1789,11 @@
       <c r="I6" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1821,11 @@
       <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1821,8 +1853,11 @@
       <c r="I8" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1850,8 +1885,11 @@
       <c r="I9" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1879,8 +1917,11 @@
       <c r="I10" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1908,8 +1949,11 @@
       <c r="I11" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1937,8 +1981,11 @@
       <c r="I12" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1966,8 +2013,11 @@
       <c r="I13" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1995,8 +2045,11 @@
       <c r="I14" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2024,8 +2077,11 @@
       <c r="I15" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2109,11 @@
       <c r="I16" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2082,8 +2141,11 @@
       <c r="I17" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2111,8 +2173,11 @@
       <c r="I18" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2140,8 +2205,11 @@
       <c r="I19" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2168,6 +2236,9 @@
       </c>
       <c r="I20" s="2" t="s">
         <v>75</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Recipes.xlsx
+++ b/Configs/Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8CCFA2-66ED-4FFD-BF8F-ADA4694D144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C9F92-5D24-478B-AF0D-8C2ECA09FE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1298" windowWidth="20108" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="1882" windowWidth="16237" windowHeight="13711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -1230,6 +1230,241 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>2100001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一瓶水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0015</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0014</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100002</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100003</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐火砖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0007</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0002,10006</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100004</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100005</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0039</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1579,13 +1814,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2241,6 +2476,166 @@
         <v>101</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/Recipes.xlsx
+++ b/Configs/Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C9F92-5D24-478B-AF0D-8C2ECA09FE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FB185-9549-4F0A-B0EA-1D84DAB98CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1882" windowWidth="16237" windowHeight="13711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="1020" windowWidth="14609" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -1463,6 +1463,137 @@
         <scheme val="minor"/>
       </rPr>
       <t>.5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200001</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻垃圾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0004,10014,10017,10009</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,2,1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200002</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一瓶油</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0016</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200003</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0018</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1814,13 +1945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2636,6 +2767,102 @@
         <v>96</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/Recipes.xlsx
+++ b/Configs/Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FB185-9549-4F0A-B0EA-1D84DAB98CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3117629C-DFE4-4BC0-AC41-E3C5774B85E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="1020" windowWidth="14609" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="1140" windowWidth="18937" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1948,10 +1948,10 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Configs/Recipes.xlsx
+++ b/Configs/Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3117629C-DFE4-4BC0-AC41-E3C5774B85E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C361A3-20FB-42BD-96E7-9A060D797606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="1140" windowWidth="18937" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1410" windowWidth="18938" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -1119,23 +1119,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0004</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>0001,10008</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1358,23 +1341,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10001,10003</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1489,40 +1455,6 @@
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0004,10014,10017,10009</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5,2,1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>2</t>
     </r>
     <r>
@@ -1595,6 +1527,189 @@
       </rPr>
       <t>0018</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000106</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000107</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤蘑菇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10045</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10038</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10039</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000401</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000402</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000403</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000404</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000405</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炖糊糊</t>
+  </si>
+  <si>
+    <t>烂肉汤</t>
+  </si>
+  <si>
+    <t>菇妈鱼丝</t>
+  </si>
+  <si>
+    <t>野味大拼盘</t>
+  </si>
+  <si>
+    <t>潮汕草果</t>
+  </si>
+  <si>
+    <t>10032,10015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10034,10015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10038,10039</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10038,10032,10034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10033</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛跳墙</t>
+  </si>
+  <si>
+    <t>肉丸</t>
+  </si>
+  <si>
+    <t>三明治</t>
+  </si>
+  <si>
+    <t>仰望星空</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>2000801</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000802</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000803</t>
+  </si>
+  <si>
+    <t>2000804</t>
+  </si>
+  <si>
+    <t>2000805</t>
+  </si>
+  <si>
+    <t>10041,10042,10039,10016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10016,10019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10040,10043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10043,10039,10016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10044,10015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10014,10003,10001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,3,3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1646,12 +1761,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1666,10 +1787,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1945,13 +2067,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1962,7 +2084,7 @@
     <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.9296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
@@ -1996,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -2028,7 +2150,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -2092,7 +2214,7 @@
         <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -2106,7 +2228,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>74</v>
@@ -2124,7 +2246,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -2153,10 +2275,10 @@
         <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -2185,10 +2307,10 @@
         <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -2217,21 +2339,21 @@
         <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>73</v>
@@ -2242,28 +2364,28 @@
       <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>85</v>
+      <c r="G9" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>73</v>
@@ -2275,27 +2397,27 @@
         <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>73</v>
@@ -2306,8 +2428,8 @@
       <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
+      <c r="G11" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>86</v>
@@ -2316,18 +2438,18 @@
         <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>73</v>
@@ -2339,27 +2461,27 @@
         <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>73</v>
@@ -2371,7 +2493,7 @@
         <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>86</v>
@@ -2380,18 +2502,18 @@
         <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10047</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>73</v>
@@ -2403,27 +2525,27 @@
         <v>73</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10048</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>73</v>
@@ -2435,27 +2557,27 @@
         <v>73</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10049</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>73</v>
@@ -2467,27 +2589,27 @@
         <v>73</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>144</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10050</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>73</v>
@@ -2499,27 +2621,27 @@
         <v>73</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>145</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10051</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>73</v>
@@ -2531,27 +2653,27 @@
         <v>73</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>73</v>
@@ -2563,27 +2685,27 @@
         <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>73</v>
@@ -2595,27 +2717,27 @@
         <v>73</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>73</v>
@@ -2627,59 +2749,59 @@
         <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>163</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10052</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>164</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10053</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>73</v>
@@ -2691,123 +2813,123 @@
         <v>73</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10054</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>166</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10055</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>167</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10056</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>73</v>
@@ -2819,47 +2941,431 @@
         <v>73</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="2" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>81</v>
       </c>
     </row>
